--- a/blanco-meta/rest/Logout.xlsx
+++ b/blanco-meta/rest/Logout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95D8C2EF-4D34-424A-A45F-C79A93EF07FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCF9CA4-18D6-7347-851E-B6C96F1E8D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="185">
   <si>
     <t>項目名</t>
     <rPh sb="0" eb="3">
@@ -2234,6 +2234,10 @@
     <rPh sb="19" eb="21">
       <t>サクジヨ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>blanco.restgenerator.valueobject.ResponseHeader</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3498,104 +3502,98 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="61" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3603,91 +3601,103 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3698,12 +3708,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4147,8 +4151,8 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4191,122 +4195,122 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="182" t="s">
+      <c r="A5" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
+      <c r="B5" s="148"/>
+      <c r="C5" s="148"/>
+      <c r="D5" s="148"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="53"/>
       <c r="G5" s="53"/>
       <c r="H5" s="92"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="190" t="s">
+      <c r="A6" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="186" t="s">
+      <c r="B6" s="153"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="E6" s="186"/>
+      <c r="E6" s="149"/>
       <c r="F6" s="53"/>
       <c r="G6" s="53"/>
       <c r="H6" s="92"/>
     </row>
     <row r="7" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A7" s="193" t="s">
+      <c r="A7" s="155" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="188" t="s">
+      <c r="B7" s="155"/>
+      <c r="C7" s="155"/>
+      <c r="D7" s="150" t="s">
         <v>183</v>
       </c>
-      <c r="E7" s="189"/>
+      <c r="E7" s="151"/>
       <c r="F7" s="53"/>
       <c r="G7" s="53"/>
       <c r="H7" s="92"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="182" t="s">
+      <c r="A8" s="148" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="186" t="s">
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="149" t="s">
         <v>156</v>
       </c>
-      <c r="E8" s="186"/>
+      <c r="E8" s="149"/>
       <c r="F8" s="92"/>
       <c r="G8" s="92"/>
       <c r="H8" s="92"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="148" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
+      <c r="B9" s="148"/>
+      <c r="C9" s="148"/>
+      <c r="D9" s="149"/>
+      <c r="E9" s="149"/>
       <c r="F9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="182" t="s">
+      <c r="A10" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="186" t="s">
+      <c r="B10" s="148"/>
+      <c r="C10" s="148"/>
+      <c r="D10" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="E10" s="186"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="92"/>
       <c r="G10" s="92"/>
       <c r="H10" s="92"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="182" t="s">
+      <c r="A11" s="148" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="186" t="s">
+      <c r="B11" s="148"/>
+      <c r="C11" s="148"/>
+      <c r="D11" s="149" t="s">
         <v>172</v>
       </c>
-      <c r="E11" s="186"/>
+      <c r="E11" s="149"/>
       <c r="F11" s="92"/>
       <c r="G11" s="92"/>
       <c r="H11" s="92"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="163" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147" t="s">
+      <c r="B12" s="163"/>
+      <c r="C12" s="163"/>
+      <c r="D12" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="147"/>
+      <c r="E12" s="162"/>
       <c r="F12" s="92" t="s">
         <v>128</v>
       </c>
       <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="146" t="s">
+      <c r="A13" s="163" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
       <c r="F13" s="52" t="s">
         <v>153</v>
       </c>
@@ -4314,71 +4318,73 @@
       <c r="H13" s="92"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="146" t="s">
+      <c r="A14" s="163" t="s">
         <v>159</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147" t="s">
+      <c r="B14" s="163"/>
+      <c r="C14" s="163"/>
+      <c r="D14" s="162" t="s">
         <v>160</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="162"/>
       <c r="F14" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="146" t="s">
+      <c r="A15" s="163" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="187" t="s">
+      <c r="B15" s="163"/>
+      <c r="C15" s="163"/>
+      <c r="D15" s="164" t="s">
         <v>180</v>
       </c>
-      <c r="E15" s="147"/>
+      <c r="E15" s="162"/>
       <c r="F15" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="146" t="s">
+      <c r="A16" s="163" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="187"/>
-      <c r="E16" s="147"/>
+      <c r="B16" s="163"/>
+      <c r="C16" s="163"/>
+      <c r="D16" s="164" t="s">
+        <v>184</v>
+      </c>
+      <c r="E16" s="162"/>
       <c r="F16" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="163" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="147"/>
+      <c r="B17" s="163"/>
+      <c r="C17" s="163"/>
+      <c r="D17" s="164"/>
+      <c r="E17" s="162"/>
       <c r="F17" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="188" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
+      <c r="B18" s="189"/>
+      <c r="C18" s="190"/>
       <c r="D18" s="111"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="191" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="193"/>
       <c r="D19" s="97"/>
       <c r="E19" t="s">
         <v>131</v>
@@ -4396,15 +4402,15 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="165" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="166"/>
+      <c r="D21" s="166"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="167"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="98" t="s">
@@ -4452,28 +4458,28 @@
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="187" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="187"/>
+      <c r="C26" s="187"/>
+      <c r="D26" s="187"/>
+      <c r="E26" s="187"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="187"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="181" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="155"/>
+      <c r="C27" s="182"/>
+      <c r="D27" s="182"/>
+      <c r="E27" s="182"/>
+      <c r="F27" s="182"/>
+      <c r="G27" s="183"/>
       <c r="H27" s="102"/>
       <c r="I27" s="102"/>
       <c r="J27" s="102"/>
@@ -4484,12 +4490,12 @@
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="113"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
+      <c r="B28" s="170"/>
+      <c r="C28" s="170"/>
+      <c r="D28" s="170"/>
+      <c r="E28" s="170"/>
+      <c r="F28" s="170"/>
+      <c r="G28" s="170"/>
       <c r="H28" s="109"/>
       <c r="I28" s="109"/>
       <c r="J28" s="109"/>
@@ -4500,12 +4506,12 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="114"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
+      <c r="E29" s="171"/>
+      <c r="F29" s="171"/>
+      <c r="G29" s="171"/>
       <c r="H29" s="109"/>
       <c r="I29" s="109"/>
       <c r="J29" s="109"/>
@@ -4516,12 +4522,12 @@
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="115"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="172"/>
+      <c r="E30" s="172"/>
+      <c r="F30" s="172"/>
+      <c r="G30" s="172"/>
       <c r="H30" s="109"/>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
@@ -4534,15 +4540,15 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="184" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="158"/>
+      <c r="B32" s="185"/>
+      <c r="C32" s="185"/>
+      <c r="D32" s="185"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="186"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="112" t="s">
@@ -4566,12 +4572,12 @@
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="113"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
+      <c r="B34" s="156"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
       <c r="H34" s="109"/>
       <c r="I34" s="109"/>
       <c r="J34" s="109"/>
@@ -4582,12 +4588,12 @@
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="114"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
+      <c r="B35" s="158"/>
+      <c r="C35" s="158"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="158"/>
+      <c r="F35" s="158"/>
+      <c r="G35" s="158"/>
       <c r="H35" s="109"/>
       <c r="I35" s="109"/>
       <c r="J35" s="109"/>
@@ -4598,12 +4604,12 @@
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="115"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
       <c r="H36" s="109"/>
       <c r="I36" s="109"/>
       <c r="J36" s="109"/>
@@ -4628,15 +4634,15 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="184" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="158"/>
+      <c r="B38" s="185"/>
+      <c r="C38" s="185"/>
+      <c r="D38" s="185"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="186"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="112" t="s">
@@ -4662,14 +4668,14 @@
       <c r="A40" s="113">
         <v>1</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="183"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="157"/>
       <c r="H40" s="109"/>
       <c r="I40" s="109"/>
       <c r="J40" s="109"/>
@@ -4680,12 +4686,12 @@
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="114"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="184"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="159"/>
       <c r="H41" s="109"/>
       <c r="I41" s="109"/>
       <c r="J41" s="109"/>
@@ -4696,12 +4702,12 @@
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="115"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="185"/>
+      <c r="B42" s="160"/>
+      <c r="C42" s="160"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="161"/>
       <c r="H42" s="109"/>
       <c r="I42" s="109"/>
       <c r="J42" s="109"/>
@@ -4737,77 +4743,77 @@
       <c r="G44" s="132"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="177" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="151" t="s">
+      <c r="B45" s="180"/>
+      <c r="C45" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
+      <c r="D45" s="178"/>
+      <c r="E45" s="179"/>
       <c r="F45" s="133" t="s">
         <v>154</v>
       </c>
       <c r="G45" s="132"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="163"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="172"/>
+      <c r="A46" s="146"/>
+      <c r="B46" s="147"/>
+      <c r="C46" s="143"/>
+      <c r="D46" s="144"/>
+      <c r="E46" s="145"/>
       <c r="F46" s="3"/>
       <c r="G46" s="49"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="163"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="172"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="147"/>
+      <c r="C47" s="143"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="145"/>
       <c r="F47" s="3"/>
       <c r="G47" s="49"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="163"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="172"/>
+      <c r="A48" s="146"/>
+      <c r="B48" s="147"/>
+      <c r="C48" s="143"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="145"/>
       <c r="F48" s="3"/>
       <c r="G48" s="49"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="163"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="172"/>
+      <c r="A49" s="146"/>
+      <c r="B49" s="147"/>
+      <c r="C49" s="143"/>
+      <c r="D49" s="144"/>
+      <c r="E49" s="145"/>
       <c r="F49" s="3"/>
       <c r="G49" s="49"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="163"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="172"/>
+      <c r="A50" s="146"/>
+      <c r="B50" s="147"/>
+      <c r="C50" s="143"/>
+      <c r="D50" s="144"/>
+      <c r="E50" s="145"/>
       <c r="F50" s="3"/>
       <c r="G50" s="49"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="163"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="172"/>
+      <c r="A51" s="146"/>
+      <c r="B51" s="147"/>
+      <c r="C51" s="143"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="145"/>
       <c r="F51" s="3"/>
       <c r="G51" s="49"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="165"/>
-      <c r="B52" s="166"/>
+      <c r="A52" s="168"/>
+      <c r="B52" s="169"/>
       <c r="C52" s="173"/>
       <c r="D52" s="174"/>
       <c r="E52" s="175"/>
@@ -4816,23 +4822,32 @@
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
@@ -4849,32 +4864,23 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -5113,10 +5119,10 @@
         <v>127</v>
       </c>
       <c r="B15" s="119"/>
-      <c r="C15" s="147" t="s">
+      <c r="C15" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="147"/>
+      <c r="D15" s="162"/>
       <c r="E15" s="92" t="s">
         <v>128</v>
       </c>
@@ -5131,8 +5137,8 @@
         <v>129</v>
       </c>
       <c r="B16" s="119"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
+      <c r="C16" s="162"/>
+      <c r="D16" s="162"/>
       <c r="E16" s="53"/>
       <c r="F16" s="52"/>
       <c r="G16" s="52"/>
@@ -5196,15 +5202,15 @@
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
+      <c r="F20" s="187"/>
+      <c r="G20" s="187"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -5214,14 +5220,14 @@
       <c r="A21" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="181" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155"/>
+      <c r="C21" s="182"/>
+      <c r="D21" s="182"/>
+      <c r="E21" s="182"/>
+      <c r="F21" s="182"/>
+      <c r="G21" s="183"/>
       <c r="H21" s="102"/>
       <c r="I21"/>
       <c r="J21"/>
@@ -5237,12 +5243,12 @@
     </row>
     <row r="22" spans="1:20">
       <c r="A22" s="113"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
+      <c r="B22" s="170"/>
+      <c r="C22" s="170"/>
+      <c r="D22" s="170"/>
+      <c r="E22" s="170"/>
+      <c r="F22" s="170"/>
+      <c r="G22" s="170"/>
       <c r="H22" s="109"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -5258,12 +5264,12 @@
     </row>
     <row r="23" spans="1:20">
       <c r="A23" s="114"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
+      <c r="B23" s="171"/>
+      <c r="C23" s="171"/>
+      <c r="D23" s="171"/>
+      <c r="E23" s="171"/>
+      <c r="F23" s="171"/>
+      <c r="G23" s="171"/>
       <c r="H23" s="109"/>
       <c r="M23" s="109"/>
       <c r="N23" s="109"/>
@@ -5275,12 +5281,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="115"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
+      <c r="B24" s="172"/>
+      <c r="C24" s="172"/>
+      <c r="D24" s="172"/>
+      <c r="E24" s="172"/>
+      <c r="F24" s="172"/>
+      <c r="G24" s="172"/>
       <c r="H24" s="109"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -5302,15 +5308,15 @@
       <c r="L25" s="102"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158"/>
+      <c r="B26" s="185"/>
+      <c r="C26" s="185"/>
+      <c r="D26" s="185"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="186"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
       <c r="K26" s="102"/>
@@ -5345,14 +5351,14 @@
       <c r="A28" s="113">
         <v>1</v>
       </c>
-      <c r="B28" s="177" t="s">
+      <c r="B28" s="156" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
       <c r="H28" s="109"/>
       <c r="M28" s="109"/>
       <c r="N28" s="109"/>
@@ -5366,14 +5372,14 @@
       <c r="A29" s="113">
         <v>2</v>
       </c>
-      <c r="B29" s="177" t="s">
+      <c r="B29" s="156" t="s">
         <v>178</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
       <c r="H29" s="109"/>
       <c r="I29" s="102"/>
       <c r="J29" s="102"/>
@@ -5391,14 +5397,14 @@
       <c r="A30" s="113">
         <v>3</v>
       </c>
-      <c r="B30" s="177" t="s">
+      <c r="B30" s="156" t="s">
         <v>179</v>
       </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
       <c r="H30" s="109"/>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
@@ -5414,12 +5420,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="113"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
+      <c r="B31" s="156"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
       <c r="H31" s="109"/>
       <c r="I31" s="109"/>
       <c r="J31" s="109"/>
@@ -5454,15 +5460,15 @@
       <c r="R32"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="A33" s="156" t="s">
+      <c r="A33" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="158"/>
+      <c r="B33" s="185"/>
+      <c r="C33" s="185"/>
+      <c r="D33" s="185"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="186"/>
       <c r="I33" s="109"/>
       <c r="J33" s="109"/>
       <c r="K33" s="109"/>
@@ -5495,12 +5501,12 @@
     </row>
     <row r="35" spans="1:24">
       <c r="A35" s="113"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="207"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="170"/>
+      <c r="F35" s="170"/>
+      <c r="G35" s="204"/>
       <c r="H35" s="109"/>
       <c r="M35" s="109"/>
       <c r="N35" s="109"/>
@@ -5512,12 +5518,12 @@
     </row>
     <row r="36" spans="1:24">
       <c r="A36" s="114"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="208"/>
+      <c r="B36" s="171"/>
+      <c r="C36" s="171"/>
+      <c r="D36" s="171"/>
+      <c r="E36" s="171"/>
+      <c r="F36" s="171"/>
+      <c r="G36" s="205"/>
       <c r="H36" s="109"/>
       <c r="M36" s="109"/>
       <c r="N36" s="109"/>
@@ -5529,12 +5535,12 @@
     </row>
     <row r="37" spans="1:24">
       <c r="A37" s="115"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="194"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
+      <c r="E37" s="172"/>
+      <c r="F37" s="172"/>
+      <c r="G37" s="206"/>
       <c r="H37" s="109"/>
       <c r="M37" s="109"/>
       <c r="N37" s="109"/>
@@ -5596,74 +5602,74 @@
       <c r="X40" s="39"/>
     </row>
     <row r="41" spans="1:24">
-      <c r="A41" s="195" t="s">
+      <c r="A41" s="194" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="207" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="195" t="s">
+      <c r="D41" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="198" t="s">
+      <c r="E41" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="198" t="s">
+      <c r="F41" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="195" t="s">
+      <c r="G41" s="194" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="195" t="s">
+      <c r="H41" s="194" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="204" t="s">
+      <c r="I41" s="201" t="s">
         <v>168</v>
       </c>
-      <c r="J41" s="204" t="s">
+      <c r="J41" s="201" t="s">
         <v>169</v>
       </c>
-      <c r="K41" s="204" t="s">
+      <c r="K41" s="201" t="s">
         <v>170</v>
       </c>
-      <c r="L41" s="205" t="s">
+      <c r="L41" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="M41" s="195" t="s">
+      <c r="M41" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="N41" s="202" t="s">
+      <c r="N41" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="O41" s="203"/>
-      <c r="P41" s="202" t="s">
+      <c r="O41" s="200"/>
+      <c r="P41" s="199" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="203"/>
+      <c r="Q41" s="200"/>
       <c r="R41" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="195" t="s">
+      <c r="S41" s="194" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:24">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="201"/>
+      <c r="A42" s="195"/>
+      <c r="B42" s="195"/>
+      <c r="C42" s="195"/>
+      <c r="D42" s="195"/>
+      <c r="E42" s="208"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="195"/>
+      <c r="H42" s="195"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="201"/>
+      <c r="L42" s="203"/>
+      <c r="M42" s="198"/>
       <c r="N42" s="29" t="s">
         <v>74</v>
       </c>
@@ -5679,7 +5685,7 @@
       <c r="R42" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="S42" s="196"/>
+      <c r="S42" s="195"/>
     </row>
     <row r="43" spans="1:24" ht="45">
       <c r="A43" s="7">
@@ -6305,6 +6311,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="S41:S42"/>
     <mergeCell ref="F41:F42"/>
@@ -6321,24 +6345,6 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6561,10 +6567,10 @@
         <v>127</v>
       </c>
       <c r="B12" s="119"/>
-      <c r="C12" s="147" t="s">
+      <c r="C12" s="162" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="147"/>
+      <c r="D12" s="162"/>
       <c r="E12" s="92" t="s">
         <v>128</v>
       </c>
@@ -6577,8 +6583,8 @@
         <v>129</v>
       </c>
       <c r="B13" s="119"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
       <c r="E13" s="53"/>
       <c r="F13" s="53"/>
       <c r="G13" s="52"/>
@@ -6616,15 +6622,15 @@
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="187" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
+      <c r="B16" s="187"/>
+      <c r="C16" s="187"/>
+      <c r="D16" s="187"/>
+      <c r="E16" s="187"/>
+      <c r="F16" s="187"/>
+      <c r="G16" s="187"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -6634,14 +6640,14 @@
       <c r="A17" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="181" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="182"/>
+      <c r="F17" s="182"/>
+      <c r="G17" s="183"/>
       <c r="H17" s="102"/>
       <c r="I17"/>
       <c r="J17"/>
@@ -6656,12 +6662,12 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="113"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
+      <c r="B18" s="170"/>
+      <c r="C18" s="170"/>
+      <c r="D18" s="170"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="170"/>
+      <c r="G18" s="170"/>
       <c r="H18" s="109"/>
       <c r="I18"/>
       <c r="J18"/>
@@ -6676,12 +6682,12 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="114"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
+      <c r="B19" s="171"/>
+      <c r="C19" s="171"/>
+      <c r="D19" s="171"/>
+      <c r="E19" s="171"/>
+      <c r="F19" s="171"/>
+      <c r="G19" s="171"/>
       <c r="H19" s="109"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -6696,12 +6702,12 @@
     </row>
     <row r="20" spans="1:20">
       <c r="A20" s="115"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
+      <c r="B20" s="172"/>
+      <c r="C20" s="172"/>
+      <c r="D20" s="172"/>
+      <c r="E20" s="172"/>
+      <c r="F20" s="172"/>
+      <c r="G20" s="172"/>
       <c r="H20" s="109"/>
       <c r="I20"/>
       <c r="J20"/>
@@ -6724,15 +6730,15 @@
       <c r="M21" s="109"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="184" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="185"/>
+      <c r="C22" s="185"/>
+      <c r="D22" s="185"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="186"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -6762,12 +6768,12 @@
     </row>
     <row r="24" spans="1:20">
       <c r="A24" s="113"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
+      <c r="B24" s="156"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
       <c r="H24" s="109"/>
       <c r="I24" s="102"/>
       <c r="J24" s="102"/>
@@ -6782,12 +6788,12 @@
     </row>
     <row r="25" spans="1:20">
       <c r="A25" s="114"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
+      <c r="B25" s="158"/>
+      <c r="C25" s="158"/>
+      <c r="D25" s="158"/>
+      <c r="E25" s="158"/>
+      <c r="F25" s="158"/>
+      <c r="G25" s="158"/>
       <c r="H25" s="109"/>
       <c r="I25" s="102"/>
       <c r="J25" s="102"/>
@@ -6802,12 +6808,12 @@
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="115"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
+      <c r="B26" s="160"/>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
       <c r="H26" s="109"/>
       <c r="I26" s="102"/>
       <c r="J26" s="102"/>
@@ -6842,15 +6848,15 @@
       <c r="R27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="184" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
+      <c r="B28" s="185"/>
+      <c r="C28" s="185"/>
+      <c r="D28" s="185"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="186"/>
       <c r="M28" s="109"/>
     </row>
     <row r="29" spans="1:20">
@@ -6880,12 +6886,12 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="113"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="207"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="204"/>
       <c r="H30" s="109"/>
       <c r="I30" s="109"/>
       <c r="J30" s="109"/>
@@ -6901,12 +6907,12 @@
     </row>
     <row r="31" spans="1:20">
       <c r="A31" s="114"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="208"/>
+      <c r="B31" s="171"/>
+      <c r="C31" s="171"/>
+      <c r="D31" s="171"/>
+      <c r="E31" s="171"/>
+      <c r="F31" s="171"/>
+      <c r="G31" s="205"/>
       <c r="H31" s="109"/>
       <c r="I31" s="109"/>
       <c r="J31" s="109"/>
@@ -6921,12 +6927,12 @@
     </row>
     <row r="32" spans="1:20">
       <c r="A32" s="115"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="194"/>
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="172"/>
+      <c r="E32" s="172"/>
+      <c r="F32" s="172"/>
+      <c r="G32" s="206"/>
       <c r="H32" s="109"/>
       <c r="I32" s="109"/>
       <c r="J32" s="109"/>
@@ -6988,76 +6994,76 @@
       <c r="S35" s="56"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="198" t="s">
+      <c r="B36" s="196" t="s">
         <v>95</v>
       </c>
       <c r="C36" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="198" t="s">
+      <c r="D36" s="196" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="198" t="s">
+      <c r="E36" s="196" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="198" t="s">
+      <c r="F36" s="196" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="198" t="s">
+      <c r="G36" s="196" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="198" t="s">
+      <c r="H36" s="196" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="211" t="s">
+      <c r="I36" s="213" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="213" t="s">
+      <c r="J36" s="215" t="s">
         <v>169</v>
       </c>
-      <c r="K36" s="213" t="s">
+      <c r="K36" s="215" t="s">
         <v>170</v>
       </c>
-      <c r="L36" s="205" t="s">
+      <c r="L36" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="M36" s="195" t="s">
+      <c r="M36" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="N36" s="209" t="s">
+      <c r="N36" s="212" t="s">
         <v>98</v>
       </c>
       <c r="O36" s="210"/>
-      <c r="P36" s="215" t="s">
+      <c r="P36" s="209" t="s">
         <v>99</v>
       </c>
       <c r="Q36" s="210"/>
       <c r="R36" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="198" t="s">
+      <c r="S36" s="196" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15">
-      <c r="A37" s="216"/>
-      <c r="B37" s="216"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="211"/>
       <c r="C37" s="59" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="201"/>
+      <c r="D37" s="211"/>
+      <c r="E37" s="197"/>
+      <c r="F37" s="197"/>
+      <c r="G37" s="211"/>
+      <c r="H37" s="211"/>
+      <c r="I37" s="214"/>
+      <c r="J37" s="216"/>
+      <c r="K37" s="216"/>
+      <c r="L37" s="203"/>
+      <c r="M37" s="198"/>
       <c r="N37" s="60" t="s">
         <v>102</v>
       </c>
@@ -7073,7 +7079,7 @@
       <c r="R37" s="61" t="s">
         <v>106</v>
       </c>
-      <c r="S37" s="216"/>
+      <c r="S37" s="211"/>
     </row>
     <row r="38" spans="1:19">
       <c r="A38" s="62">
@@ -7583,6 +7589,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="S36:S37"/>
@@ -7599,22 +7621,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
